--- a/data/EPFL Extension School_Personal_Details.xlsx
+++ b/data/EPFL Extension School_Personal_Details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dflores/Dropbox/EXTS/Projects/autoHiring/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA5409D-E513-0843-8F08-F7E8A71A8742}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D589F6C-2B93-134E-9702-51D2C0335ADE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="460" windowWidth="24820" windowHeight="28340" xr2:uid="{7A64A84C-17F9-2548-864F-7F5C3007427B}"/>
   </bookViews>
@@ -881,7 +881,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
